--- a/Enfermedades.xlsx
+++ b/Enfermedades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmora\Documents\GitHub\Lab_2020_DEIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A7169-B8EF-45C7-A10D-F12EFB0CFB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC2F512-8AAA-424F-BF07-C031ACB0855E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4DEF5122-1C35-4562-B323-511D582C9AC3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{4DEF5122-1C35-4562-B323-511D582C9AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <t>Códigos para situaciones especiales</t>
   </si>
   <si>
-    <t>Tipo_Tratamiento</t>
+    <t>Tratamiento</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
